--- a/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519003</t>
+          <t>001071</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通收益增长混合</t>
+          <t>华安媒体互联网混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.55</t>
+          <t>60.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>19.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>19.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>博时裕隆灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.31</t>
+          <t>32.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1567</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001071</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>11.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>519003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>海富通收益增长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>17.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>009740</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -810,15 +930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>93.53</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005795</t>
+          <t>005062</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时中证500指数增强C</t>
+          <t>博时中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>92.24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.32</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007943</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富安达中证 500 指数增强</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>78.55</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002595</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博时工业4.0主题股票</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>161037</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>002595</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>博时工业4.0主题股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005062</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时中证500指数增强A</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1090,15 +1310,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>89.87</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>6.20</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>009741</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>161037</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>富国中证高端制造指数增强（LOF）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005616</t>
+          <t>005795</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方量化成长灵活配置混合</t>
+          <t>博时中证500指数增强C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1304,25 +1604,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009740</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>71.92</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1332,26 +1642,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009741</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>71.92</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009857</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>68.55</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009858</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>68.55</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1416,26 +1756,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1444,26 +1794,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1472,26 +1832,34 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1500,26 +1868,34 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>诺安中证500指数增强C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>7</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,15 +1930,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1574,25 +1960,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004135</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化成长混合</t>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>18.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1602,26 +1998,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009857</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
+          <t>博时裕隆灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1630,25 +2036,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009858</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>80.46</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1658,25 +2074,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000652</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时裕隆灵活配置混合</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1686,26 +2112,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1714,26 +2150,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1742,26 +2188,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>62.23</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1770,26 +2226,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1798,26 +2264,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>财通福盛多策略混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1826,26 +2302,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>005844</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）</t>
+          <t>东方人工智能主题混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1854,26 +2340,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1882,26 +2378,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1910,26 +2416,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005844</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方人工智能主题混合</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1938,26 +2454,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1974,17 +2500,21 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>65.08</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.31</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2500,7 +2501,6 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>65.08</t>
@@ -2516,6 +2516,290 @@
       </c>
       <c r="H16" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2805,4 +2806,2110 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5644</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7942</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4594</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>50.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4912,4 +4913,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4921,7 +4922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4932,17 +4933,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4952,14 +4973,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.07</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4968,14 +5011,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.84</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9999</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4984,14 +5049,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.31</v>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5000,13 +5087,3417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2372</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8396,7 +8397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8407,17 +8408,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8427,14 +8448,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.24</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>402.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8443,14 +8486,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.07</v>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8459,14 +8524,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.84</v>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8475,14 +8562,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.31</v>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8491,13 +8600,3131 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013371</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013372</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="D2" t="n">
-        <v>41.1</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="D3" t="n">
-        <v>9.69</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>18.24</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>10.07</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>2.84</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4.31</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.12</v>
       </c>
     </row>
@@ -600,6 +617,4656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>387.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国长期成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6617</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3977</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009965</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015689</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>561150</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国中证500ESG基准ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009966</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015691</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国长期成长混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10533,7 +15200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13743,7 +18410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17217,7 +21884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19323,7 +23990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19607,7 +24274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20226,7 +24893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601615-明阳智能.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>21.48</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="D3" t="n">
-        <v>41.1</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="D4" t="n">
-        <v>9.69</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>18.24</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>10.07</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>2.84</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>4.31</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>37</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.12</v>
       </c>
     </row>
@@ -616,7 +633,4519 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1567</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009455</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2667</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0808</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6682</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5237</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4182</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010656</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商均衡30混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009965</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>惠升惠益混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>42.08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>惠升惠益混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015575</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015574</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>016386</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>42.08</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009966</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016387</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5266,7 +9795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15200,7 +19729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18410,7 +22939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21884,7 +26413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23990,7 +28519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24274,7 +28803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24891,1462 +29420,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1367</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008966</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5649</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.5649</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000652</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2427</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>32.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1567</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5317</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>61.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5009</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009454</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3754</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通收益增长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3384</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007460</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安成长创新混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2990</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009740</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2491</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519983</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.72</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2480</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1071</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0964</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0868</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0853</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时工业4.0主题股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0453</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>71.92</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>161037</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007943</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>富安达中证 500 指数增强</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004221</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009455</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>